--- a/data/experiment_1/algorithm_gpt4o_1.xlsx
+++ b/data/experiment_1/algorithm_gpt4o_1.xlsx
@@ -29,7 +29,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1126">
+  <si>
+    <t>func_name</t>
+  </si>
+  <si>
+    <t>FUT</t>
+  </si>
+  <si>
+    <t>seed case</t>
+  </si>
+  <si>
+    <t>prompts</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
   <si>
     <t>carray</t>
   </si>
@@ -16632,13 +16647,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -17105,16 +17126,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -17123,120 +17141,126 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -17553,348 +17577,348 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B1:B19"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E20" t="s">
@@ -17903,270 +17927,270 @@
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
         <v>134</v>
       </c>
       <c r="E36" t="s">
@@ -18175,149 +18199,149 @@
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" t="s">
         <v>136</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" t="s">
         <v>138</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
         <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
         <v>171</v>
@@ -18328,49 +18352,49 @@
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
         <v>182</v>
       </c>
       <c r="E48" t="s">
@@ -18379,160 +18403,160 @@
     </row>
     <row r="49" customHeight="1" spans="1:5">
       <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:5">
       <c r="A50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" t="s">
-        <v>203</v>
+        <v>184</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" t="s">
         <v>205</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="D55" t="s">
+        <v>210</v>
+      </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" t="s">
-        <v>211</v>
+        <v>184</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" t="s">
         <v>213</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
         <v>220</v>
@@ -18549,253 +18573,253 @@
     </row>
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:5">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:5">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:5">
       <c r="A66" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" t="s">
         <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="D66" t="s">
+        <v>255</v>
+      </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:5">
       <c r="A67" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>257</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>258</v>
+        <v>138</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:5">
       <c r="A68" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:5">
       <c r="A69" t="s">
-        <v>252</v>
-      </c>
-      <c r="B69" t="s">
-        <v>264</v>
+        <v>257</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
-      </c>
-      <c r="D69" t="s">
         <v>266</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="E69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:5">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:5">
       <c r="A71" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:5">
       <c r="A72" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
+      </c>
+      <c r="B72" t="s">
+        <v>276</v>
       </c>
       <c r="C72" t="s">
-        <v>275</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
+      </c>
+      <c r="D72" t="s">
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:5">
       <c r="A73" t="s">
-        <v>278</v>
-      </c>
-      <c r="B73" t="s">
+        <v>257</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C73" t="s">
         <v>280</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>281</v>
       </c>
       <c r="E73" t="s">
@@ -18804,126 +18828,126 @@
     </row>
     <row r="74" customHeight="1" spans="1:5">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:5">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D75" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:5">
       <c r="A76" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:5">
       <c r="A77" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:5">
       <c r="A78" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D78" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:5">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:5">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E80" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:5">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s">
         <v>312</v>
@@ -18940,109 +18964,109 @@
     </row>
     <row r="82" customHeight="1" spans="1:5">
       <c r="A82" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C82" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:5">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C83" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
       <c r="A85" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C85" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C86" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D86" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C87" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E87" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
       <c r="A88" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
         <v>341</v>
@@ -19059,109 +19083,109 @@
     </row>
     <row r="89" customHeight="1" spans="1:5">
       <c r="A89" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C89" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
       <c r="A90" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B91" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
       <c r="A92" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C92" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D92" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E92" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
       <c r="A93" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B93" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
       <c r="A94" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B94" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
       <c r="A95" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B95" t="s">
         <v>370</v>
@@ -19178,75 +19202,75 @@
     </row>
     <row r="96" customHeight="1" spans="1:5">
       <c r="A96" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
       <c r="A97" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E97" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
       <c r="A98" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D98" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E98" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D99" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E99" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
       <c r="A100" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B100" t="s">
         <v>391</v>
@@ -19263,149 +19287,149 @@
     </row>
     <row r="101" customHeight="1" spans="1:5">
       <c r="A101" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D101" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E101" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:5">
       <c r="A102" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:5">
       <c r="A103" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E103" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:5">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B104" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C104" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D104" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E104" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:5">
       <c r="A105" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B105" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C105" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D105" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:5">
       <c r="A106" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D106" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E106" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:5">
       <c r="A107" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B107" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C107" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D107" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E107" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:5">
       <c r="A108" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B108" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D108" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E108" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:5">
       <c r="A109" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="B109" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C109" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D109" t="s">
         <v>429</v>
@@ -19433,75 +19457,75 @@
     </row>
     <row r="111" customHeight="1" spans="1:5">
       <c r="A111" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B111" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="C111" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="D111" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="E111" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:5">
       <c r="A112" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B112" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="C112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D112" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="E112" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:5">
       <c r="A113" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B113" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C113" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:5">
       <c r="A114" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B114" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C114" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D114" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E114" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:5">
       <c r="A115" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B115" t="s">
         <v>449</v>
@@ -19518,24 +19542,24 @@
     </row>
     <row r="116" customHeight="1" spans="1:5">
       <c r="A116" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B116" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C116" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D116" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E116" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:5">
       <c r="A117" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B117" t="s">
         <v>458</v>
@@ -19552,75 +19576,75 @@
     </row>
     <row r="118" customHeight="1" spans="1:5">
       <c r="A118" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B118" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C118" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D118" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E118" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:5">
       <c r="A119" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B119" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C119" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="D119" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E119" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:5">
       <c r="A120" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D120" t="s">
-        <v>384</v>
+        <v>472</v>
       </c>
       <c r="E120" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:5">
       <c r="A121" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B121" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
       <c r="C121" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="D121" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="E121" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:5">
       <c r="A122" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B122" t="s">
         <v>475</v>
@@ -19637,92 +19661,92 @@
     </row>
     <row r="123" customHeight="1" spans="1:5">
       <c r="A123" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B123" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C123" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D123" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:5">
       <c r="A124" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B124" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="C124" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="D124" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="E124" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:5">
       <c r="A125" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B125" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C125" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D125" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E125" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:5">
       <c r="A126" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B126" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C126" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="D126" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="E126" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:5">
       <c r="A127" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B127" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C127" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="D127" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E127" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:5">
       <c r="A128" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B128" t="s">
         <v>494</v>
@@ -19739,109 +19763,109 @@
     </row>
     <row r="129" customHeight="1" spans="1:5">
       <c r="A129" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B129" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C129" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D129" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E129" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:5">
       <c r="A130" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B130" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C130" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D130" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E130" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:5">
       <c r="A131" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B131" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C131" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D131" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E131" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:5">
       <c r="A132" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B132" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C132" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D132" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E132" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:5">
       <c r="A133" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B133" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C133" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D133" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E133" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:5">
       <c r="A134" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B134" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C134" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D134" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E134" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:5">
       <c r="A135" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="B135" t="s">
         <v>522</v>
@@ -19858,24 +19882,24 @@
     </row>
     <row r="136" customHeight="1" spans="1:5">
       <c r="A136" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B136" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C136" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D136" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E136" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:5">
       <c r="A137" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B137" t="s">
         <v>531</v>
@@ -19892,75 +19916,75 @@
     </row>
     <row r="138" customHeight="1" spans="1:5">
       <c r="A138" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B138" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C138" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D138" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E138" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:5">
       <c r="A139" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B139" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C139" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D139" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E139" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:5">
       <c r="A140" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B140" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C140" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D140" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E140" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:5">
       <c r="A141" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B141" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C141" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D141" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E141" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:5">
       <c r="A142" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B142" t="s">
         <v>552</v>
@@ -19977,75 +20001,75 @@
     </row>
     <row r="143" customHeight="1" spans="1:5">
       <c r="A143" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B143" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C143" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D143" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E143" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:5">
       <c r="A144" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C144" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D144" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E144" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:5">
       <c r="A145" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B145" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C145" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D145" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E145" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:5">
       <c r="A146" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B146" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C146" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D146" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E146" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:5">
       <c r="A147" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B147" t="s">
         <v>573</v>
@@ -20062,424 +20086,424 @@
     </row>
     <row r="148" customHeight="1" spans="1:5">
       <c r="A148" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B148" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>579</v>
       </c>
       <c r="D148" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:5">
       <c r="A149" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B149" t="s">
-        <v>444</v>
+        <v>582</v>
       </c>
       <c r="C149" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D149" t="s">
-        <v>446</v>
+        <v>583</v>
       </c>
       <c r="E149" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:5">
       <c r="A150" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B150" t="s">
-        <v>581</v>
+        <v>449</v>
       </c>
       <c r="C150" t="s">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="D150" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="E150" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:5">
       <c r="A151" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B151" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C151" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D151" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E151" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:5">
       <c r="A152" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B152" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C152" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D152" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E152" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:5">
       <c r="A153" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B153" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C153" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D153" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E153" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:5">
       <c r="A154" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B154" t="s">
-        <v>432</v>
+        <v>598</v>
       </c>
       <c r="C154" t="s">
-        <v>433</v>
+        <v>599</v>
       </c>
       <c r="D154" t="s">
-        <v>434</v>
+        <v>600</v>
       </c>
       <c r="E154" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:5">
       <c r="A155" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B155" t="s">
-        <v>598</v>
+        <v>437</v>
       </c>
       <c r="C155" t="s">
-        <v>599</v>
+        <v>438</v>
       </c>
       <c r="D155" t="s">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="E155" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:5">
       <c r="A156" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B156" t="s">
-        <v>395</v>
+        <v>603</v>
       </c>
       <c r="C156" t="s">
-        <v>396</v>
+        <v>604</v>
       </c>
       <c r="D156" t="s">
-        <v>397</v>
+        <v>605</v>
       </c>
       <c r="E156" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:5">
       <c r="A157" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="C157" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D157" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="E157" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:5">
       <c r="A158" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B158" t="s">
-        <v>577</v>
+        <v>442</v>
       </c>
       <c r="C158" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D158" t="s">
-        <v>578</v>
+        <v>443</v>
       </c>
       <c r="E158" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:5">
       <c r="A159" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>582</v>
       </c>
       <c r="C159" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D159" t="s">
-        <v>446</v>
+        <v>583</v>
       </c>
       <c r="E159" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:5">
       <c r="A160" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B160" t="s">
-        <v>581</v>
+        <v>449</v>
       </c>
       <c r="C160" t="s">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="D160" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="E160" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:5">
       <c r="A161" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B161" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C161" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D161" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E161" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:5">
       <c r="A162" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B162" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C162" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D162" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E162" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:5">
       <c r="A163" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="B163" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C163" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="D163" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="E163" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:5">
       <c r="A164" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B164" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C164" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="D164" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E164" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:5">
       <c r="A165" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B165" t="s">
-        <v>395</v>
+        <v>618</v>
       </c>
       <c r="C165" t="s">
-        <v>396</v>
+        <v>619</v>
       </c>
       <c r="D165" t="s">
-        <v>397</v>
+        <v>620</v>
       </c>
       <c r="E165" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:5">
       <c r="A166" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B166" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="C166" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D166" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="E166" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:5">
       <c r="A167" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B167" t="s">
-        <v>577</v>
+        <v>442</v>
       </c>
       <c r="C167" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D167" t="s">
-        <v>578</v>
+        <v>443</v>
       </c>
       <c r="E167" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:5">
       <c r="A168" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B168" t="s">
-        <v>444</v>
+        <v>582</v>
       </c>
       <c r="C168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D168" t="s">
-        <v>446</v>
+        <v>583</v>
       </c>
       <c r="E168" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:5">
       <c r="A169" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>449</v>
       </c>
       <c r="C169" t="s">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="D169" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="E169" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:5">
       <c r="A170" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B170" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C170" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D170" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E170" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:5">
       <c r="A171" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B171" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C171" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D171" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E171" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:5">
       <c r="A172" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B172" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="C172" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="D172" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="E172" t="s">
         <v>628</v>
@@ -20504,151 +20528,151 @@
     </row>
     <row r="174" customHeight="1" spans="1:5">
       <c r="A174" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B174" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C174" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D174" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E174" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:5">
       <c r="A175" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B175" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C175" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D175" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E175" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:5">
       <c r="A176" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B176" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C176" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D176" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E176" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="1:5">
       <c r="A177" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B177" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C177" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D177" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E177" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:5">
       <c r="A178" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B178" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C178" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D178" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E178" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:5">
       <c r="A179" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B179" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C179" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D179" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E179" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:5">
       <c r="A180" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B180" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C180" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D180" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E180" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:5">
       <c r="A181" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B181" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C181" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D181" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E181" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:5">
       <c r="A182" t="s">
-        <v>666</v>
-      </c>
-      <c r="B182" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B182" t="s">
         <v>667</v>
       </c>
       <c r="C182" t="s">
         <v>668</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" t="s">
         <v>669</v>
       </c>
       <c r="E182" t="s">
@@ -20657,271 +20681,271 @@
     </row>
     <row r="183" customHeight="1" spans="1:5">
       <c r="A183" t="s">
-        <v>666</v>
-      </c>
-      <c r="B183" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="B183" s="2" t="s">
+        <v>672</v>
+      </c>
       <c r="C183" t="s">
-        <v>672</v>
-      </c>
-      <c r="D183" s="1" t="s">
         <v>673</v>
       </c>
+      <c r="D183" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="E183" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:5">
       <c r="A184" t="s">
-        <v>666</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="C184" t="s">
-        <v>672</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="E184" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="1:5">
       <c r="A185" t="s">
-        <v>666</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="C185" t="s">
-        <v>679</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="E185" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:5">
       <c r="A186" t="s">
-        <v>666</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="C186" t="s">
-        <v>683</v>
-      </c>
-      <c r="D186" s="1" t="s">
         <v>684</v>
       </c>
+      <c r="D186" s="2" t="s">
+        <v>685</v>
+      </c>
       <c r="E186" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:5">
       <c r="A187" t="s">
-        <v>666</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>686</v>
+        <v>671</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="C187" t="s">
-        <v>687</v>
-      </c>
-      <c r="D187" s="1" t="s">
         <v>688</v>
       </c>
+      <c r="D187" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="E187" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="1:5">
       <c r="A188" t="s">
-        <v>666</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>690</v>
+        <v>671</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="C188" t="s">
-        <v>687</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="E188" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="1:5">
       <c r="A189" t="s">
-        <v>666</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>693</v>
+        <v>671</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="C189" t="s">
-        <v>687</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="E189" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:5">
       <c r="A190" t="s">
-        <v>696</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>667</v>
+        <v>671</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="C190" t="s">
-        <v>668</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>669</v>
+        <v>692</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="E190" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="1:5">
       <c r="A191" t="s">
-        <v>696</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="C191" t="s">
-        <v>672</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>699</v>
+        <v>673</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="E191" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="1:5">
       <c r="A192" t="s">
-        <v>696</v>
-      </c>
-      <c r="B192" s="1" t="s">
         <v>701</v>
       </c>
+      <c r="B192" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="C192" t="s">
-        <v>672</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>702</v>
+        <v>677</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="E192" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="1:5">
       <c r="A193" t="s">
-        <v>696</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>678</v>
+        <v>701</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="C193" t="s">
-        <v>679</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="E193" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="1:5">
       <c r="A194" t="s">
-        <v>696</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>682</v>
+        <v>701</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="C194" t="s">
-        <v>683</v>
-      </c>
-      <c r="D194" s="1" t="s">
         <v>684</v>
       </c>
+      <c r="D194" s="2" t="s">
+        <v>685</v>
+      </c>
       <c r="E194" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="1:5">
       <c r="A195" t="s">
-        <v>696</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="C195" t="s">
-        <v>687</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>707</v>
+        <v>688</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="E195" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="1:5">
       <c r="A196" t="s">
-        <v>696</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>690</v>
+        <v>701</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="C196" t="s">
-        <v>687</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="E196" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:5">
       <c r="A197" t="s">
+        <v>701</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C197" t="s">
+        <v>692</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C197" t="s">
-        <v>687</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="E197" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="1:5">
       <c r="A198" t="s">
-        <v>711</v>
-      </c>
-      <c r="B198" t="s">
-        <v>712</v>
+        <v>701</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="C198" t="s">
-        <v>713</v>
-      </c>
-      <c r="D198" t="s">
-        <v>714</v>
+        <v>692</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="E198" t="s">
         <v>715</v>
@@ -20929,98 +20953,98 @@
     </row>
     <row r="199" customHeight="1" spans="1:5">
       <c r="A199" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B199" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C199" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D199" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E199" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="1:5">
       <c r="A200" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B200" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C200" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D200" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E200" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="1:5">
       <c r="A201" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B201" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C201" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D201" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E201" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="1:5">
       <c r="A202" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B202" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C202" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D202" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E202" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="1:5">
       <c r="A203" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B203" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C203" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="D203" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E203" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="1:5">
       <c r="A204" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="B204" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C204" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="D204" t="s">
         <v>738</v>
@@ -21031,143 +21055,143 @@
     </row>
     <row r="205" customHeight="1" spans="1:5">
       <c r="A205" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B205" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C205" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D205" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E205" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="206" customHeight="1" spans="1:5">
       <c r="A206" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B206" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C206" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D206" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E206" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="1:5">
       <c r="A207" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B207" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C207" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D207" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E207" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="1:5">
       <c r="A208" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B208" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C208" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D208" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E208" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="209" customHeight="1" spans="1:5">
       <c r="A209" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B209" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C209" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D209" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E209" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="1:5">
       <c r="A210" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B210" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C210" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D210" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E210" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="1:5">
       <c r="A211" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B211" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C211" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D211" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E211" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="212" customHeight="1" spans="1:5">
       <c r="A212" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B212" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C212" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D212" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E212" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="1:5">
       <c r="A213" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="B213" t="s">
         <v>771</v>
@@ -21184,49 +21208,49 @@
     </row>
     <row r="214" customHeight="1" spans="1:5">
       <c r="A214" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B214" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C214" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D214" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E214" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="215" customHeight="1" spans="1:5">
       <c r="A215" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B215" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C215" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D215" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E215" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="1:5">
       <c r="A216" t="s">
-        <v>783</v>
-      </c>
-      <c r="B216" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B216" t="s">
         <v>784</v>
       </c>
       <c r="C216" t="s">
         <v>785</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" t="s">
         <v>786</v>
       </c>
       <c r="E216" t="s">
@@ -21235,100 +21259,100 @@
     </row>
     <row r="217" customHeight="1" spans="1:5">
       <c r="A217" t="s">
-        <v>783</v>
-      </c>
-      <c r="B217" s="1" t="s">
         <v>788</v>
       </c>
+      <c r="B217" s="2" t="s">
+        <v>789</v>
+      </c>
       <c r="C217" t="s">
-        <v>789</v>
-      </c>
-      <c r="D217" s="1" t="s">
         <v>790</v>
       </c>
+      <c r="D217" s="2" t="s">
+        <v>791</v>
+      </c>
       <c r="E217" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="1:5">
       <c r="A218" t="s">
-        <v>783</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>793</v>
       </c>
       <c r="C218" t="s">
-        <v>793</v>
-      </c>
-      <c r="D218" s="1" t="s">
         <v>794</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>795</v>
+      </c>
       <c r="E218" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="1:5">
       <c r="A219" t="s">
-        <v>783</v>
-      </c>
-      <c r="B219" t="s">
-        <v>796</v>
+        <v>788</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>797</v>
       </c>
       <c r="C219" t="s">
-        <v>797</v>
-      </c>
-      <c r="D219" t="s">
         <v>798</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>799</v>
+      </c>
       <c r="E219" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="1:5">
       <c r="A220" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B220" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C220" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D220" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E220" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="221" customHeight="1" spans="1:5">
       <c r="A221" t="s">
-        <v>783</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>804</v>
+        <v>788</v>
+      </c>
+      <c r="B221" t="s">
+        <v>805</v>
       </c>
       <c r="C221" t="s">
-        <v>805</v>
-      </c>
-      <c r="D221" s="1" t="s">
         <v>806</v>
       </c>
+      <c r="D221" t="s">
+        <v>807</v>
+      </c>
       <c r="E221" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="1:5">
       <c r="A222" t="s">
-        <v>808</v>
-      </c>
-      <c r="B222" t="s">
+        <v>788</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>809</v>
       </c>
       <c r="C222" t="s">
         <v>810</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="2" t="s">
         <v>811</v>
       </c>
       <c r="E222" t="s">
@@ -21337,24 +21361,24 @@
     </row>
     <row r="223" customHeight="1" spans="1:5">
       <c r="A223" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B223" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C223" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D223" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E223" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="1:5">
       <c r="A224" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B224" t="s">
         <v>818</v>
@@ -21371,41 +21395,41 @@
     </row>
     <row r="225" customHeight="1" spans="1:5">
       <c r="A225" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B225" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C225" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D225" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E225" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="1:5">
       <c r="A226" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B226" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C226" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D226" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E226" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="1:5">
       <c r="A227" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B227" t="s">
         <v>831</v>
@@ -21422,98 +21446,98 @@
     </row>
     <row r="228" customHeight="1" spans="1:5">
       <c r="A228" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B228" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C228" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D228" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E228" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="1:5">
       <c r="A229" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B229" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C229" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D229" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E229" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="230" customHeight="1" spans="1:5">
       <c r="A230" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B230" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C230" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D230" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E230" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="231" customHeight="1" spans="1:5">
       <c r="A231" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B231" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C231" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D231" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E231" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="232" customHeight="1" spans="1:5">
       <c r="A232" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B232" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C232" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
       <c r="D232" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E232" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="1:5">
       <c r="A233" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="B233" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C233" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="D233" t="s">
         <v>857</v>
@@ -21524,58 +21548,58 @@
     </row>
     <row r="234" customHeight="1" spans="1:5">
       <c r="A234" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B234" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C234" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D234" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E234" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="1:5">
       <c r="A235" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B235" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C235" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D235" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E235" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="236" customHeight="1" spans="1:5">
       <c r="A236" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B236" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C236" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D236" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E236" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="237" customHeight="1" spans="1:5">
       <c r="A237" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B237" t="s">
         <v>872</v>
@@ -21592,41 +21616,41 @@
     </row>
     <row r="238" customHeight="1" spans="1:5">
       <c r="A238" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B238" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C238" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D238" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E238" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="239" customHeight="1" spans="1:5">
       <c r="A239" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B239" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C239" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D239" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E239" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="240" customHeight="1" spans="1:5">
       <c r="A240" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B240" t="s">
         <v>885</v>
@@ -21643,160 +21667,160 @@
     </row>
     <row r="241" customHeight="1" spans="1:5">
       <c r="A241" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B241" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C241" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D241" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E241" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="1:5">
       <c r="A242" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B242" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C242" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D242" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E242" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="243" customHeight="1" spans="1:5">
       <c r="A243" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B243" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C243" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D243" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E243" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="1:5">
       <c r="A244" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B244" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C244" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="D244" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E244" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="1:5">
       <c r="A245" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="B245" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C245" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D245" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E245" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="246" customHeight="1" spans="1:5">
       <c r="A246" t="s">
-        <v>551</v>
+        <v>889</v>
       </c>
       <c r="B246" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C246" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D246" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E246" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="1:5">
       <c r="A247" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B247" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C247" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D247" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E247" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="1:5">
       <c r="A248" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B248" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C248" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D248" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E248" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="249" customHeight="1" spans="1:5">
       <c r="A249" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B249" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C249" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D249" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E249" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="1:5">
       <c r="A250" t="s">
-        <v>924</v>
+        <v>556</v>
       </c>
       <c r="B250" t="s">
         <v>925</v>
@@ -21813,98 +21837,98 @@
     </row>
     <row r="251" customHeight="1" spans="1:5">
       <c r="A251" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B251" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C251" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D251" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E251" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="252" customHeight="1" spans="1:5">
       <c r="A252" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B252" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C252" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D252" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E252" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="1:5">
       <c r="A253" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B253" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C253" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D253" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E253" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="1:5">
       <c r="A254" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B254" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C254" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="D254" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E254" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="255" customHeight="1" spans="1:5">
       <c r="A255" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B255" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C255" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="D255" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E255" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="1:5">
       <c r="A256" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="B256" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C256" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="D256" t="s">
         <v>950</v>
@@ -21915,160 +21939,160 @@
     </row>
     <row r="257" customHeight="1" spans="1:5">
       <c r="A257" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B257" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C257" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D257" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E257" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="258" customHeight="1" spans="1:5">
       <c r="A258" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B258" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C258" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="D258" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E258" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="1:5">
       <c r="A259" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B259" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C259" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D259" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E259" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="1:5">
       <c r="A260" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B260" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C260" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D260" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E260" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="261" customHeight="1" spans="1:5">
       <c r="A261" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B261" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C261" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D261" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E261" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="1:5">
       <c r="A262" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B262" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C262" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D262" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E262" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="263" customHeight="1" spans="1:5">
       <c r="A263" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B263" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C263" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="D263" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E263" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="264" customHeight="1" spans="1:5">
       <c r="A264" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B264" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C264" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="D264" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E264" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="1:5">
       <c r="A265" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B265" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C265" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D265" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E265" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="1:5">
       <c r="A266" t="s">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="B266" t="s">
         <v>986</v>
@@ -22085,279 +22109,279 @@
     </row>
     <row r="267" customHeight="1" spans="1:5">
       <c r="A267" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="B267" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C267" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D267" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E267" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="1:5">
       <c r="A268" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="B268" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C268" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D268" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E268" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="1:5">
       <c r="A269" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="B269" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C269" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D269" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E269" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="270" customHeight="1" spans="1:5">
       <c r="A270" t="s">
-        <v>924</v>
+        <v>990</v>
       </c>
       <c r="B270" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C270" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D270" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E270" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="1:5">
       <c r="A271" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B271" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C271" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D271" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E271" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="1:5">
       <c r="A272" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B272" t="s">
-        <v>929</v>
+        <v>1011</v>
       </c>
       <c r="C272" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D272" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E272" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="273" customHeight="1" spans="1:5">
       <c r="A273" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B273" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C273" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D273" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E273" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="1:5">
       <c r="A274" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B274" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C274" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D274" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E274" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="1:5">
       <c r="A275" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B275" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C275" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="D275" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E275" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="276" customHeight="1" spans="1:5">
       <c r="A276" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B276" t="s">
+        <v>949</v>
+      </c>
+      <c r="C276" t="s">
         <v>1021</v>
       </c>
-      <c r="C276" t="s">
-        <v>1022</v>
-      </c>
       <c r="D276" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E276" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="277" customHeight="1" spans="1:5">
       <c r="A277" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B277" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C277" t="s">
-        <v>886</v>
+        <v>1027</v>
       </c>
       <c r="D277" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E277" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="1:5">
       <c r="A278" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B278" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C278" t="s">
-        <v>1029</v>
+        <v>891</v>
       </c>
       <c r="D278" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E278" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="279" customHeight="1" spans="1:5">
       <c r="A279" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B279" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C279" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="D279" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E279" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="1:5">
       <c r="A280" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B280" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C280" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D280" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E280" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="1:5">
       <c r="A281" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B281" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C281" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D281" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E281" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="282" customHeight="1" spans="1:5">
       <c r="A282" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B282" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C282" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D282" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E282" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="283" customHeight="1" spans="1:5">
       <c r="A283" t="s">
-        <v>1047</v>
+        <v>929</v>
       </c>
       <c r="B283" t="s">
         <v>1048</v>
@@ -22374,461 +22398,478 @@
     </row>
     <row r="284" customHeight="1" spans="1:5">
       <c r="A284" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B284" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C284" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D284" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="E284" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="285" customHeight="1" spans="1:5">
       <c r="A285" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B285" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C285" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D285" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E285" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="1:5">
       <c r="A286" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B286" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C286" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D286" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E286" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="287" customHeight="1" spans="1:5">
       <c r="A287" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B287" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C287" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D287" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E287" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="288" customHeight="1" spans="1:5">
       <c r="A288" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B288" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C288" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D288" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E288" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="1:5">
       <c r="A289" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B289" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C289" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D289" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E289" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="1:5">
       <c r="A290" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B290" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C290" t="s">
-        <v>1061</v>
+        <v>1078</v>
       </c>
       <c r="D290" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E290" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="291" customHeight="1" spans="1:5">
       <c r="A291" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B291" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C291" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="D291" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E291" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="1:5">
       <c r="A292" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B292" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C292" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D292" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E292" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="1:5">
       <c r="A293" t="s">
-        <v>219</v>
+        <v>1052</v>
       </c>
       <c r="B293" t="s">
-        <v>228</v>
+        <v>1088</v>
       </c>
       <c r="C293" t="s">
-        <v>229</v>
+        <v>1089</v>
       </c>
       <c r="D293" t="s">
-        <v>230</v>
+        <v>1090</v>
       </c>
       <c r="E293" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="294" customHeight="1" spans="1:5">
       <c r="A294" t="s">
-        <v>924</v>
+        <v>224</v>
       </c>
       <c r="B294" t="s">
-        <v>1088</v>
+        <v>233</v>
       </c>
       <c r="C294" t="s">
-        <v>1010</v>
+        <v>234</v>
       </c>
       <c r="D294" t="s">
-        <v>1089</v>
+        <v>235</v>
       </c>
       <c r="E294" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="295" customHeight="1" spans="1:5">
       <c r="A295" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="B295" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C295" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D295" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="E295" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="296" customHeight="1" spans="1:5">
       <c r="A296" t="s">
-        <v>448</v>
+        <v>929</v>
       </c>
       <c r="B296" t="s">
-        <v>453</v>
+        <v>1096</v>
       </c>
       <c r="C296" t="s">
-        <v>454</v>
+        <v>1018</v>
       </c>
       <c r="D296" t="s">
-        <v>455</v>
+        <v>1097</v>
       </c>
       <c r="E296" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="297" customHeight="1" spans="1:5">
       <c r="A297" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="B297" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="C297" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="D297" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="E297" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="298" customHeight="1" spans="1:5">
       <c r="A298" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="B298" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="C298" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="D298" t="s">
-        <v>334</v>
+        <v>398</v>
       </c>
       <c r="E298" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="1:5">
       <c r="A299" t="s">
-        <v>179</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>195</v>
+        <v>316</v>
+      </c>
+      <c r="B299" t="s">
+        <v>337</v>
       </c>
       <c r="C299" t="s">
-        <v>196</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>1097</v>
+        <v>338</v>
+      </c>
+      <c r="D299" t="s">
+        <v>339</v>
       </c>
       <c r="E299" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="300" customHeight="1" spans="1:5">
       <c r="A300" t="s">
-        <v>179</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C300" t="s">
-        <v>200</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>1099</v>
+        <v>201</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>1102</v>
       </c>
       <c r="E300" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="1:5">
       <c r="A301" t="s">
-        <v>179</v>
-      </c>
-      <c r="B301" t="s">
-        <v>203</v>
+        <v>184</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C301" t="s">
-        <v>204</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1101</v>
+        <v>205</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>1104</v>
       </c>
       <c r="E301" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="1:5">
       <c r="A302" t="s">
-        <v>179</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
+      </c>
+      <c r="B302" t="s">
+        <v>208</v>
       </c>
       <c r="C302" t="s">
-        <v>208</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>1103</v>
+        <v>209</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1106</v>
       </c>
       <c r="E302" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="303" customHeight="1" spans="1:5">
       <c r="A303" t="s">
-        <v>219</v>
-      </c>
-      <c r="B303" t="s">
-        <v>224</v>
+        <v>184</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C303" t="s">
-        <v>225</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1105</v>
+        <v>213</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>1108</v>
       </c>
       <c r="E303" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="1:5">
       <c r="A304" t="s">
-        <v>252</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>256</v>
+        <v>224</v>
+      </c>
+      <c r="B304" t="s">
+        <v>229</v>
       </c>
       <c r="C304" t="s">
-        <v>257</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>1107</v>
+        <v>230</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1110</v>
       </c>
       <c r="E304" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="1:5">
       <c r="A305" t="s">
-        <v>252</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>274</v>
+        <v>257</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C305" t="s">
-        <v>275</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>1109</v>
+        <v>262</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>1112</v>
       </c>
       <c r="E305" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="306" customHeight="1" spans="1:5">
       <c r="A306" t="s">
-        <v>390</v>
-      </c>
-      <c r="B306" t="s">
-        <v>391</v>
+        <v>257</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="C306" t="s">
-        <v>392</v>
-      </c>
-      <c r="D306" t="s">
-        <v>1111</v>
+        <v>280</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>1114</v>
       </c>
       <c r="E306" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="1:5">
       <c r="A307" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="B307" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="C307" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="D307" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="E307" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="1:5">
       <c r="A308" t="s">
-        <v>666</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>671</v>
+        <v>431</v>
+      </c>
+      <c r="B308" t="s">
+        <v>432</v>
       </c>
       <c r="C308" t="s">
-        <v>672</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>1115</v>
+        <v>433</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1118</v>
       </c>
       <c r="E308" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="309" customHeight="1" spans="1:5">
       <c r="A309" t="s">
-        <v>666</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="C309" t="s">
-        <v>672</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>1117</v>
+        <v>677</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>1120</v>
       </c>
       <c r="E309" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="1:5">
       <c r="A310" t="s">
-        <v>696</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>698</v>
+        <v>671</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="C310" t="s">
-        <v>672</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>1119</v>
+        <v>677</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>1122</v>
       </c>
       <c r="E310" t="s">
-        <v>1120</v>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="1:5">
+      <c r="A311" t="s">
+        <v>701</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C311" t="s">
+        <v>677</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
